--- a/accelerator_source_cedar/accel_cedar/resources/MeasuresTermsv4.xlsx
+++ b/accelerator_source_cedar/accel_cedar/resources/MeasuresTermsv4.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nih.sharepoint.com/sites/NIH-PCOR-Geospatial-Data-and-Health/Shared Documents/General/Data Infrastructure/Data Curation/Measure terms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conwaymc/Documents/workspace-accel/accelerator-source-cedar/accelerator_source_cedar/accel_cedar/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{B8845C26-5D78-4068-B0FC-2FF0EFC6FFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DDCC754-DC2C-4758-A1BE-CE21E7917104}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B39FB13-AA09-2848-98CC-DCBAC4D1EAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{F1C97F43-1BF7-470E-A3BA-5AF1B94CD038}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="11620" xr2:uid="{F1C97F43-1BF7-470E-A3BA-5AF1B94CD038}"/>
   </bookViews>
   <sheets>
-    <sheet name="Measure List 1.27.25" sheetId="1" r:id="rId1"/>
+    <sheet name="Measures" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Measure List 1.27.25'!$A$1:$D$249</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$D$249</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -873,7 +873,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -982,9 +982,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1022,7 +1022,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1128,7 +1128,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1270,7 +1270,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1282,19 +1282,19 @@
   <dimension ref="A1:D249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K212" sqref="K212"/>
+      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D250" sqref="D250"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.600000000000001">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="2" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1316,7 +1316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="3" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="4" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="5" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="6" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="7" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="8" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="9" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="10" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="11" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="12" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="13" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="14" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="15" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="16" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="17" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="18" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="19" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="20" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="21" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="22" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="23" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="24" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="25" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="26" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="27" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="28" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="29" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>5</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="30" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="31" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1716,7 +1716,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="32" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="33" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="34" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="35" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="36" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="37" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="38" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="39" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1822,7 +1822,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="40" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="41" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="42" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="43" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="44" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="45" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="46" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="47" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="48" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="49" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="50" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="51" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="52" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1998,7 +1998,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="18.600000000000001">
+    <row r="53" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="18.600000000000001">
+    <row r="54" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="18.600000000000001">
+    <row r="55" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="18.600000000000001">
+    <row r="56" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="18.600000000000001">
+    <row r="57" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="18.600000000000001">
+    <row r="58" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="18.600000000000001">
+    <row r="59" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="18.600000000000001">
+    <row r="60" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="18.600000000000001">
+    <row r="61" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>5</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="18.600000000000001">
+    <row r="62" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>5</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="18.600000000000001">
+    <row r="63" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>5</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="18.600000000000001">
+    <row r="64" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>5</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="18.600000000000001">
+    <row r="65" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>5</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="18.600000000000001">
+    <row r="66" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>5</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="18.600000000000001">
+    <row r="67" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>5</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="18.600000000000001">
+    <row r="68" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="18.600000000000001">
+    <row r="69" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>5</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="18.600000000000001">
+    <row r="70" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="18.600000000000001">
+    <row r="71" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="18.600000000000001">
+    <row r="72" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="18.600000000000001">
+    <row r="73" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="18.600000000000001">
+    <row r="74" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>5</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="18.600000000000001">
+    <row r="75" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="18.600000000000001">
+    <row r="76" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>5</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="18.600000000000001">
+    <row r="77" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>5</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="18.600000000000001">
+    <row r="78" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>5</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="18.600000000000001">
+    <row r="79" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>5</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="18.600000000000001">
+    <row r="80" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>5</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="18.600000000000001">
+    <row r="81" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>5</v>
       </c>
@@ -2404,7 +2404,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="18.600000000000001">
+    <row r="82" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>5</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="18.600000000000001">
+    <row r="83" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>5</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="18.600000000000001">
+    <row r="84" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>5</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="18.600000000000001">
+    <row r="85" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>5</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="18.600000000000001">
+    <row r="86" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>5</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="18.600000000000001">
+    <row r="87" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>5</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="18.600000000000001">
+    <row r="88" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>5</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="18.600000000000001">
+    <row r="89" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>5</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="18.600000000000001">
+    <row r="90" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>5</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="18.600000000000001">
+    <row r="91" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>5</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="18.600000000000001">
+    <row r="92" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>5</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="18.600000000000001">
+    <row r="93" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>5</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="94" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2580,7 +2580,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="95" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>101</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="96" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>101</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="97" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>101</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="98" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>101</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="99" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>101</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="100" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="101" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>101</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="102" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="103" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="104" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>101</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="105" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2728,7 +2728,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="106" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>101</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="107" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>101</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="108" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>101</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="109" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>101</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="110" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>101</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="111" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>101</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="112" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>101</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="113" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>101</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="114" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>101</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="115" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>101</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="116" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>101</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="117" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="3"/>
       <c r="C117" s="1"/>
@@ -2890,7 +2890,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="118" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>101</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="119" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>101</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="120" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>101</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="121" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>101</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="122" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>101</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="123" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>101</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="124" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>101</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="125" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="3"/>
       <c r="C125" s="1"/>
@@ -2996,7 +2996,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="126" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>101</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="127" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>101</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="128" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>101</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="129" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>101</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="130" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>101</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="131" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="3"/>
       <c r="C131" s="1"/>
@@ -3074,7 +3074,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="132" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>101</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="133" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>101</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="134" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>101</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="135" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>101</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="136" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>101</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="137" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>101</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="138" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="3"/>
       <c r="C138" s="1"/>
@@ -3166,7 +3166,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="139" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>101</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="140" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>101</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="141" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>101</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="142" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>101</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="143" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>101</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="144" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>101</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="145" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>101</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="146" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>101</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="147" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>101</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="148" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>101</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="149" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>101</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="150" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>101</v>
       </c>
@@ -3334,7 +3334,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="151" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>101</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="152" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>101</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="153" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>101</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="154" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>101</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="155" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>101</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="156" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>101</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="157" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>101</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="158" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>101</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="159" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>101</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="160" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>101</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="161" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>101</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="162" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>101</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="163" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -3510,7 +3510,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="164" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>101</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="165" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>101</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="166" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>101</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="167" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>101</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="168" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>101</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="169" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>101</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="170" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>101</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="171" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>101</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="172" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>101</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="173" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>101</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="174" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -3658,7 +3658,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="175" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>101</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="176" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>101</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="177" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>101</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="178" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>101</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="179" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>101</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="180" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -3736,7 +3736,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="181" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>101</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="182" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>101</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="183" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>101</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="184" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>101</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="185" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>101</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="186" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>101</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="187" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>101</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="188" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>101</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="189" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>101</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="190" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>101</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="191" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>101</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="192" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>101</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="193" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>101</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="194" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>101</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="195" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>101</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="196" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>101</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="197" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>101</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="198" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>101</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="199" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>101</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="200" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>101</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="201" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -4024,7 +4024,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="18.600000000000001">
+    <row r="202" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>221</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="18.600000000000001">
+    <row r="203" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>221</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="18.600000000000001">
+    <row r="204" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>221</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="18.600000000000001">
+    <row r="205" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>221</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="18.600000000000001">
+    <row r="206" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>221</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="18.600000000000001">
+    <row r="207" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>221</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="18.600000000000001">
+    <row r="208" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>221</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="18.600000000000001">
+    <row r="209" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>221</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="18.600000000000001">
+    <row r="210" spans="1:4" ht="19" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>221</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="211" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -4158,7 +4158,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="212" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>221</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="213" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>221</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="214" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>221</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="215" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>221</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="216" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -4222,7 +4222,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="217" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>221</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="218" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>221</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="219" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>221</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="220" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>221</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="221" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>221</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="222" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>221</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="223" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -4314,7 +4314,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="224" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>221</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="225" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>221</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="226" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>221</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="227" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>221</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="228" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>221</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="229" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>221</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="230" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>221</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="231" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>221</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="232" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>221</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="233" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>221</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="234" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>221</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="235" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>221</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="236" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>221</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="237" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>221</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="238" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -4518,7 +4518,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="239" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>221</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="240" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>221</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="241" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -4554,7 +4554,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="242" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>267</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="243" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>267</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="244" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>267</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="245" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>267</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="246" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>267</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="247" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>267</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="248" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>267</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="18.600000000000001" hidden="1">
+    <row r="249" spans="1:4" ht="19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>267</v>
       </c>
@@ -4680,12 +4680,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2de882ca-9509-47c1-8c64-fb583c88719d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="687fcabb-7907-411d-9d68-e27ef4ca3abf" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4918,26 +4920,50 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2de882ca-9509-47c1-8c64-fb583c88719d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="687fcabb-7907-411d-9d68-e27ef4ca3abf" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9740ACCB-C35A-4876-813A-2F324A062F72}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6A0709B-9ABA-4E1F-BD8E-A86E1A64763E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2de882ca-9509-47c1-8c64-fb583c88719d"/>
+    <ds:schemaRef ds:uri="687fcabb-7907-411d-9d68-e27ef4ca3abf"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6A1C43E-2977-4BBC-80FE-5C7433DD389E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6A1C43E-2977-4BBC-80FE-5C7433DD389E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2de882ca-9509-47c1-8c64-fb583c88719d"/>
+    <ds:schemaRef ds:uri="687fcabb-7907-411d-9d68-e27ef4ca3abf"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6A0709B-9ABA-4E1F-BD8E-A86E1A64763E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9740ACCB-C35A-4876-813A-2F324A062F72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
